--- a/biology/Botanique/Jardin_des_Plantes_(Toulouse)/Jardin_des_Plantes_(Toulouse).xlsx
+++ b/biology/Botanique/Jardin_des_Plantes_(Toulouse)/Jardin_des_Plantes_(Toulouse).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin des Plantes est le nom d’un jardin public de Toulouse ; anciennement il s'agissait d’un jardin des plantes et il en a conservé le nom mais pas le statut[a]. Il fait partie, avec le Boulingrin et le Jardin Royal, d'un ensemble de trois jardins situés au sud-est du centre-ville de Toulouse.
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le premier Jardin des plantes de Toulouse fut créé en 1730 par la Société des sciences de Toulouse. Mais il ne se situait pas à son emplacement actuel, il était dans le quartier Saint-Sernin, non loin de la porte Matabiau.
 La qualité du sol ne donnant pas satisfaction, la collection dut être déplacée en 1756 vers la rue de la Sénéchaussée (rue des Fleurs de nos jours).
@@ -553,14 +567,16 @@
           <t>Actuellement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin des Plantes se trouve au sud-ouest du centre-ville, dans le quartier du Busca, vers le canal du Midi.
 Quand il fut déplacé à cet endroit, il se trouvait alors en dehors de l'enceinte de la ville, mais il est aujourd’hui en son centre, dans une zone d'habitat très dense mélangeant des constructions anciennes (rue Théodore-Ozenne, allées Jules-Guesde) avec des immeubles plus récents (port Saint-Sauveur).
 Il est bordé par l'École de médecine, le Muséum d'histoire naturelle, le théâtre Daniel-Sorano et l'église Saint-Exupère.
 Il est très proche du Boulingrin mais une large avenue l'en sépare. Une passerelle métallique permet toutefois aux piétons de faire la jonction entre ces deux parcs publics.
 Plusieurs entrées le desservent. La plus ancienne est la porte du Capitole de Toulouse (construite par Nicolas Bachelier) datant de 1555. Au cours de son histoire, elle a été déplacée de l’enceinte du Capitole vers le flanc Est du jardin. L’entrée la plus usitée est sans conteste l'entrée dit « Virebent »  au niveau des allées Jules Guesde. Elle fait pendant à l’entrée Sud-est et s’y trouve reliée par l’allée des justes des Nations.
-Le Jardin regroupe plusieurs vestiges, tels des bâtiments anciens ou rénovés. Parmi ces derniers, le Muséum datant de la fin du XVIe siècle. La porte d'entrée Est du jardin est une reconstitution datant de 1886 d'une des portes de l'ancien Capitole. Le dessin de la porte Nord, donnant sur la rue Théodore-Ozenne, fut esquissé en 1806 par Jacques-Pascal Virebent[1] et les premières traces de sa construction remontent au 15 ventôse de l'an XIII.
+Le Jardin regroupe plusieurs vestiges, tels des bâtiments anciens ou rénovés. Parmi ces derniers, le Muséum datant de la fin du XVIe siècle. La porte d'entrée Est du jardin est une reconstitution datant de 1886 d'une des portes de l'ancien Capitole. Le dessin de la porte Nord, donnant sur la rue Théodore-Ozenne, fut esquissé en 1806 par Jacques-Pascal Virebent et les premières traces de sa construction remontent au 15 ventôse de l'an XIII.
 Il est géré par le Service des Espaces verts de la ville de Toulouse.
 			La porte Bachelier
 			Entrée de Virebent
@@ -605,7 +621,9 @@
           <t>Lieu de mémoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le monument aux juste des nations
 Lieux symbolique des liens de Toulouse avec le reste du monde. Certains arbres sont consacrés aux amitiés entre les peuples :
@@ -638,9 +656,11 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'allée Jules Guesde a été sélectionnée pour accueillir une fan zone lors du championnat d'Europe de football 2016, d'une capacité de 11 500 places[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'allée Jules Guesde a été sélectionnée pour accueillir une fan zone lors du championnat d'Europe de football 2016, d'une capacité de 11 500 places.
 </t>
         </is>
       </c>
@@ -671,18 +691,93 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lythraceae
-Lagerstroemia indica
+          <t>Lythraceae</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lagerstroemia indica
 			Lagerstroemia indica
-Conifères et plantes alliées
-Cyprès chauve
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jardin_des_Plantes_(Toulouse)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_des_Plantes_(Toulouse)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Espèces présentes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Conifères et plantes alliées</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyprès chauve
 Cyprès du Japon
 Métaséquoia
 Ginkgo biloba
 			Cyprès du Japon  Muséum de Toulouse
 			Thuya de Chine  Muséum de Toulouse
-Feuillus
-Noyer noir d'Amérique
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jardin_des_Plantes_(Toulouse)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_des_Plantes_(Toulouse)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Espèces présentes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Feuillus</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Noyer noir d'Amérique
 Aulne glutineux var. laciniata</t>
         </is>
       </c>
